--- a/non-linear 3-degree regression models experimental results/e6000_FrozenLake__compare.xlsx
+++ b/non-linear 3-degree regression models experimental results/e6000_FrozenLake__compare.xlsx
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.0058479309082</v>
+        <v>6.018877029418945</v>
       </c>
       <c r="N2">
-        <v>18.0058479309082</v>
+        <v>6.018877029418945</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -673,13 +673,13 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>41.28170013427734</v>
+        <v>11.08098030090332</v>
       </c>
       <c r="M3">
-        <v>5.241632461547852</v>
+        <v>0.99945068359375</v>
       </c>
       <c r="N3">
-        <v>46.5233325958252</v>
+        <v>12.08043098449707</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.0987377166748</v>
+        <v>7.225751876831055</v>
       </c>
       <c r="N4">
-        <v>16.0987377166748</v>
+        <v>7.225751876831055</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -761,13 +761,13 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>116.4824962615967</v>
+        <v>12.10761070251465</v>
       </c>
       <c r="M5">
-        <v>4.995822906494141</v>
+        <v>1.99437141418457</v>
       </c>
       <c r="N5">
-        <v>121.4783191680908</v>
+        <v>14.10198211669922</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -808,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.99018478393555</v>
+        <v>8.996248245239258</v>
       </c>
       <c r="N6">
-        <v>16.99018478393555</v>
+        <v>8.996248245239258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -849,13 +849,13 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>35.39299964904785</v>
+        <v>9.078741073608398</v>
       </c>
       <c r="M7">
-        <v>4.989862442016602</v>
+        <v>1.004934310913086</v>
       </c>
       <c r="N7">
-        <v>40.38286209106445</v>
+        <v>10.08367538452148</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.54836463928223</v>
+        <v>6.000995635986328</v>
       </c>
       <c r="N8">
-        <v>23.54836463928223</v>
+        <v>6.000995635986328</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>26.05986595153809</v>
+        <v>8.999824523925781</v>
       </c>
       <c r="M9">
-        <v>3.010034561157227</v>
+        <v>1.107931137084961</v>
       </c>
       <c r="N9">
-        <v>29.06990051269531</v>
+        <v>10.10775566101074</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>46.53739929199219</v>
+        <v>5.003452301025391</v>
       </c>
       <c r="N10">
-        <v>46.53739929199219</v>
+        <v>5.003452301025391</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1022,13 +1022,13 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>41.00203514099121</v>
+        <v>12.48860359191895</v>
       </c>
       <c r="M11">
-        <v>3.998517990112305</v>
+        <v>2.097606658935547</v>
       </c>
       <c r="N11">
-        <v>45.00055313110352</v>
+        <v>14.58621025085449</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>49.46637153625488</v>
+        <v>8.000612258911133</v>
       </c>
       <c r="N12">
-        <v>49.46637153625488</v>
+        <v>8.000612258911133</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1110,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>23.00119400024414</v>
+        <v>8.997917175292969</v>
       </c>
       <c r="M13">
-        <v>5.003213882446289</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>28.00440788269043</v>
+        <v>8.997917175292969</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.35812759399414</v>
+        <v>7.103443145751953</v>
       </c>
       <c r="N14">
-        <v>26.35812759399414</v>
+        <v>7.103443145751953</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1195,13 +1195,13 @@
         <v>3</v>
       </c>
       <c r="L15">
-        <v>12.2520923614502</v>
+        <v>2.999305725097656</v>
       </c>
       <c r="M15">
-        <v>4.993438720703125</v>
+        <v>1.000404357910156</v>
       </c>
       <c r="N15">
-        <v>17.24553108215332</v>
+        <v>3.999710083007812</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1236,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="L16">
-        <v>0.9899139404296875</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.32681083679199</v>
+        <v>5.000591278076172</v>
       </c>
       <c r="N16">
-        <v>15.31672477722168</v>
+        <v>5.000591278076172</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1280,13 +1280,13 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>4.001855850219727</v>
+        <v>0.9982585906982422</v>
       </c>
       <c r="M17">
-        <v>2.998590469360352</v>
+        <v>1.001358032226562</v>
       </c>
       <c r="N17">
-        <v>7.000446319580078</v>
+        <v>1.999616622924805</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.08608055114746</v>
+        <v>4.994630813598633</v>
       </c>
       <c r="N18">
-        <v>13.08608055114746</v>
+        <v>4.994630813598633</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1365,13 +1365,13 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>16.09468460083008</v>
+        <v>5.014181137084961</v>
       </c>
       <c r="M19">
-        <v>4.018783569335938</v>
+        <v>1.003503799438477</v>
       </c>
       <c r="N19">
-        <v>20.11346817016602</v>
+        <v>6.017684936523438</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.08157157897949</v>
+        <v>7.539510726928711</v>
       </c>
       <c r="N20">
-        <v>16.08157157897949</v>
+        <v>7.539510726928711</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1450,13 +1450,13 @@
         <v>3</v>
       </c>
       <c r="L21">
-        <v>3.99327278137207</v>
+        <v>1.996278762817383</v>
       </c>
       <c r="M21">
-        <v>5.999565124511719</v>
+        <v>3.044605255126953</v>
       </c>
       <c r="N21">
-        <v>9.992837905883789</v>
+        <v>5.040884017944336</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.65944671630859</v>
+        <v>7.010936737060547</v>
       </c>
       <c r="N22">
-        <v>20.65944671630859</v>
+        <v>7.010936737060547</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1538,13 +1538,13 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <v>23.70810508728027</v>
+        <v>7.015705108642578</v>
       </c>
       <c r="M23">
-        <v>3.001689910888672</v>
+        <v>1.984119415283203</v>
       </c>
       <c r="N23">
-        <v>26.70979499816895</v>
+        <v>8.999824523925781</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.00744438171387</v>
+        <v>7.017374038696289</v>
       </c>
       <c r="N24">
-        <v>19.00744438171387</v>
+        <v>7.017374038696289</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1626,13 +1626,13 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>32.88674354553223</v>
+        <v>10.02740859985352</v>
       </c>
       <c r="M25">
-        <v>4.99725341796875</v>
+        <v>0.9896755218505859</v>
       </c>
       <c r="N25">
-        <v>37.88399696350098</v>
+        <v>11.0170841217041</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>20.01357078552246</v>
+        <v>5.985021591186523</v>
       </c>
       <c r="N26">
-        <v>20.01357078552246</v>
+        <v>5.985021591186523</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1714,13 +1714,13 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>38.59829902648926</v>
+        <v>5.016326904296875</v>
       </c>
       <c r="M27">
-        <v>8.649110794067383</v>
+        <v>1.001119613647461</v>
       </c>
       <c r="N27">
-        <v>47.24740982055664</v>
+        <v>6.017446517944336</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1761,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>41.25475883483887</v>
+        <v>6.000280380249023</v>
       </c>
       <c r="N28">
-        <v>41.25475883483887</v>
+        <v>6.000280380249023</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1802,13 +1802,13 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <v>17.65823364257812</v>
+        <v>5.015850067138672</v>
       </c>
       <c r="M29">
-        <v>5.004644393920898</v>
+        <v>1.982688903808594</v>
       </c>
       <c r="N29">
-        <v>22.66287803649902</v>
+        <v>6.998538970947266</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>41.1531925201416</v>
+        <v>6.000280380249023</v>
       </c>
       <c r="N30">
-        <v>41.1531925201416</v>
+        <v>6.000280380249023</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1890,13 +1890,13 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>24.27840232849121</v>
+        <v>5.972146987915039</v>
       </c>
       <c r="M31">
-        <v>3.004789352416992</v>
+        <v>1.001596450805664</v>
       </c>
       <c r="N31">
-        <v>27.2831916809082</v>
+        <v>6.973743438720703</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>44.73352432250977</v>
+        <v>7.001399993896484</v>
       </c>
       <c r="N32">
-        <v>44.73352432250977</v>
+        <v>7.001399993896484</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1978,13 +1978,13 @@
         <v>3</v>
       </c>
       <c r="L33">
-        <v>25.37274360656738</v>
+        <v>8.982658386230469</v>
       </c>
       <c r="M33">
-        <v>3.015518188476562</v>
+        <v>1.113653182983398</v>
       </c>
       <c r="N33">
-        <v>28.38826179504395</v>
+        <v>10.09631156921387</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>17.99964904785156</v>
+        <v>6.000518798828125</v>
       </c>
       <c r="N34">
-        <v>17.99964904785156</v>
+        <v>6.000518798828125</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2066,13 +2066,13 @@
         <v>2</v>
       </c>
       <c r="L35">
-        <v>21.52872085571289</v>
+        <v>7.014751434326172</v>
       </c>
       <c r="M35">
-        <v>2.011299133300781</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N35">
-        <v>23.54001998901367</v>
+        <v>8.014440536499023</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2113,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>23.62298965454102</v>
+        <v>5.094766616821289</v>
       </c>
       <c r="N36">
-        <v>23.62298965454102</v>
+        <v>5.094766616821289</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2151,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>28.26499938964844</v>
+        <v>8.153676986694336</v>
       </c>
       <c r="M37">
-        <v>2.020835876464844</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>30.28583526611328</v>
+        <v>8.153676986694336</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2198,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>23.46253395080566</v>
+        <v>6.986618041992188</v>
       </c>
       <c r="N38">
-        <v>23.46253395080566</v>
+        <v>6.986618041992188</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2236,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>47.821044921875</v>
+        <v>10.95700263977051</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1.020669937133789</v>
       </c>
       <c r="N39">
-        <v>47.821044921875</v>
+        <v>11.9776725769043</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>21.94523811340332</v>
+        <v>9.958982467651367</v>
       </c>
       <c r="N40">
-        <v>21.94523811340332</v>
+        <v>9.958982467651367</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>38.10334205627441</v>
+        <v>10.11776924133301</v>
       </c>
       <c r="M41">
-        <v>1.898050308227539</v>
+        <v>2.881050109863281</v>
       </c>
       <c r="N41">
-        <v>40.00139236450195</v>
+        <v>12.99881935119629</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>18.55301856994629</v>
+        <v>6.901741027832031</v>
       </c>
       <c r="N42">
-        <v>18.55301856994629</v>
+        <v>6.901741027832031</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2409,13 +2409,13 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>15.00391960144043</v>
+        <v>6.001710891723633</v>
       </c>
       <c r="M43">
-        <v>3.00145149230957</v>
+        <v>0.9973049163818359</v>
       </c>
       <c r="N43">
-        <v>18.00537109375</v>
+        <v>6.999015808105469</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>18.04733276367188</v>
+        <v>6.999731063842773</v>
       </c>
       <c r="N44">
-        <v>18.04733276367188</v>
+        <v>6.999731063842773</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2497,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="L45">
-        <v>30.1048755645752</v>
+        <v>11.00063323974609</v>
       </c>
       <c r="M45">
-        <v>2.023458480834961</v>
+        <v>0.9973049163818359</v>
       </c>
       <c r="N45">
-        <v>32.12833404541016</v>
+        <v>11.99793815612793</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>20.00093460083008</v>
+        <v>8.545398712158203</v>
       </c>
       <c r="N46">
-        <v>20.00093460083008</v>
+        <v>8.545398712158203</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2585,13 +2585,13 @@
         <v>2</v>
       </c>
       <c r="L47">
-        <v>18.00036430358887</v>
+        <v>7.020235061645508</v>
       </c>
       <c r="M47">
-        <v>3.000259399414062</v>
+        <v>0.9884834289550781</v>
       </c>
       <c r="N47">
-        <v>21.00062370300293</v>
+        <v>8.008718490600586</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>15.9602165222168</v>
+        <v>7.074117660522461</v>
       </c>
       <c r="N48">
-        <v>15.9602165222168</v>
+        <v>7.074117660522461</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2673,13 +2673,13 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>16.71171188354492</v>
+        <v>5.106925964355469</v>
       </c>
       <c r="M49">
-        <v>2.900600433349609</v>
+        <v>1.000404357910156</v>
       </c>
       <c r="N49">
-        <v>19.61231231689453</v>
+        <v>6.107330322265625</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2720,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>30.54404258728027</v>
+        <v>5.25212287902832</v>
       </c>
       <c r="N50">
-        <v>30.54404258728027</v>
+        <v>5.25212287902832</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2761,13 +2761,13 @@
         <v>2</v>
       </c>
       <c r="L51">
-        <v>32.03010559082031</v>
+        <v>4.076242446899414</v>
       </c>
       <c r="M51">
-        <v>4.32276725769043</v>
+        <v>0.9982585906982422</v>
       </c>
       <c r="N51">
-        <v>36.35287284851074</v>
+        <v>5.074501037597656</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2808,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>23.17428588867188</v>
+        <v>7.005691528320312</v>
       </c>
       <c r="N52">
-        <v>23.17428588867188</v>
+        <v>7.005691528320312</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2849,13 +2849,13 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>33.53095054626465</v>
+        <v>9.015560150146484</v>
       </c>
       <c r="M53">
-        <v>6.463766098022461</v>
+        <v>0.9758472442626953</v>
       </c>
       <c r="N53">
-        <v>39.99471664428711</v>
+        <v>9.99140739440918</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2896,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>20.03860473632812</v>
+        <v>6.624937057495117</v>
       </c>
       <c r="N54">
-        <v>20.03860473632812</v>
+        <v>6.624937057495117</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2937,13 +2937,13 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>15.02823829650879</v>
+        <v>5.896091461181641</v>
       </c>
       <c r="M55">
-        <v>4.328489303588867</v>
+        <v>1.028060913085938</v>
       </c>
       <c r="N55">
-        <v>19.35672760009766</v>
+        <v>6.924152374267578</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>26.41725540161133</v>
+        <v>6.059646606445312</v>
       </c>
       <c r="N56">
-        <v>26.41725540161133</v>
+        <v>6.059646606445312</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3025,13 +3025,13 @@
         <v>3</v>
       </c>
       <c r="L57">
-        <v>34.38425064086914</v>
+        <v>9.096384048461914</v>
       </c>
       <c r="M57">
-        <v>4.988193511962891</v>
+        <v>1.954317092895508</v>
       </c>
       <c r="N57">
-        <v>39.37244415283203</v>
+        <v>11.05070114135742</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>25.60138702392578</v>
+        <v>5.9814453125</v>
       </c>
       <c r="N58">
-        <v>25.60138702392578</v>
+        <v>5.9814453125</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3113,13 +3113,13 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>23.93341064453125</v>
+        <v>4.995822906494141</v>
       </c>
       <c r="M59">
-        <v>3.006458282470703</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N59">
-        <v>26.93986892700195</v>
+        <v>5.995512008666992</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3160,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>23.03552627563477</v>
+        <v>6.016254425048828</v>
       </c>
       <c r="N60">
-        <v>23.03552627563477</v>
+        <v>6.016254425048828</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3201,13 +3201,13 @@
         <v>2</v>
       </c>
       <c r="L61">
-        <v>15.01965522766113</v>
+        <v>6.129741668701172</v>
       </c>
       <c r="M61">
-        <v>4.007816314697266</v>
+        <v>1.993179321289062</v>
       </c>
       <c r="N61">
-        <v>19.0274715423584</v>
+        <v>8.122920989990234</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3248,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>30.55405616760254</v>
+        <v>7.036209106445312</v>
       </c>
       <c r="N62">
-        <v>30.55405616760254</v>
+        <v>7.036209106445312</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3289,13 +3289,13 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>91.19319915771484</v>
+        <v>11.11078262329102</v>
       </c>
       <c r="M63">
-        <v>6.356477737426758</v>
+        <v>1.023292541503906</v>
       </c>
       <c r="N63">
-        <v>97.5496768951416</v>
+        <v>12.13407516479492</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>43.55812072753906</v>
+        <v>5.989313125610352</v>
       </c>
       <c r="N64">
-        <v>43.55812072753906</v>
+        <v>5.989313125610352</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3377,13 +3377,13 @@
         <v>3</v>
       </c>
       <c r="L65">
-        <v>87.55278587341309</v>
+        <v>10.12301445007324</v>
       </c>
       <c r="M65">
-        <v>17.11130142211914</v>
+        <v>0.9982585906982422</v>
       </c>
       <c r="N65">
-        <v>104.6640872955322</v>
+        <v>11.12127304077148</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>43.56241226196289</v>
+        <v>6.00743293762207</v>
       </c>
       <c r="N66">
-        <v>43.56241226196289</v>
+        <v>6.00743293762207</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3465,13 +3465,13 @@
         <v>2</v>
       </c>
       <c r="L67">
-        <v>33.57529640197754</v>
+        <v>4.57310676574707</v>
       </c>
       <c r="M67">
-        <v>8.229494094848633</v>
+        <v>0.9977817535400391</v>
       </c>
       <c r="N67">
-        <v>41.80479049682617</v>
+        <v>5.570888519287109</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3512,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>28.59878540039062</v>
+        <v>6.103038787841797</v>
       </c>
       <c r="N68">
-        <v>28.59878540039062</v>
+        <v>6.103038787841797</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3553,13 +3553,13 @@
         <v>2</v>
       </c>
       <c r="L69">
-        <v>23.27442169189453</v>
+        <v>4.988670349121094</v>
       </c>
       <c r="M69">
-        <v>5.890130996704102</v>
+        <v>1.101493835449219</v>
       </c>
       <c r="N69">
-        <v>29.16455268859863</v>
+        <v>6.090164184570312</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>25.88868141174316</v>
+        <v>9.029865264892578</v>
       </c>
       <c r="N70">
-        <v>25.88868141174316</v>
+        <v>9.029865264892578</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3641,13 +3641,13 @@
         <v>2</v>
       </c>
       <c r="L71">
-        <v>18.87369155883789</v>
+        <v>5.406856536865234</v>
       </c>
       <c r="M71">
-        <v>4.949808120727539</v>
+        <v>1.266717910766602</v>
       </c>
       <c r="N71">
-        <v>23.82349967956543</v>
+        <v>6.673574447631836</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>29.12068367004395</v>
+        <v>5.015134811401367</v>
       </c>
       <c r="N72">
-        <v>29.12068367004395</v>
+        <v>5.015134811401367</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3729,13 +3729,13 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>23.33259582519531</v>
+        <v>4.991531372070312</v>
       </c>
       <c r="M73">
-        <v>3.222942352294922</v>
+        <v>1.001358032226562</v>
       </c>
       <c r="N73">
-        <v>26.55553817749023</v>
+        <v>5.992889404296875</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3776,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>25.07328987121582</v>
+        <v>6.120681762695312</v>
       </c>
       <c r="N74">
-        <v>25.07328987121582</v>
+        <v>6.120681762695312</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3817,13 +3817,13 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <v>37.67156600952148</v>
+        <v>5.01561164855957</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1.000642776489258</v>
       </c>
       <c r="N75">
-        <v>37.67156600952148</v>
+        <v>6.016254425048828</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>22.23706245422363</v>
+        <v>5.983352661132812</v>
       </c>
       <c r="N76">
-        <v>22.23706245422363</v>
+        <v>5.983352661132812</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3902,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>22.30954170227051</v>
+        <v>6.03175163269043</v>
       </c>
       <c r="M77">
-        <v>1.872539520263672</v>
+        <v>0.9915828704833984</v>
       </c>
       <c r="N77">
-        <v>24.18208122253418</v>
+        <v>7.023334503173828</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>28.67460250854492</v>
+        <v>6.028652191162109</v>
       </c>
       <c r="N78">
-        <v>28.67460250854492</v>
+        <v>6.028652191162109</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3987,13 +3987,13 @@
         <v>2</v>
       </c>
       <c r="L79">
-        <v>24.83773231506348</v>
+        <v>6.450414657592773</v>
       </c>
       <c r="M79">
-        <v>2.493381500244141</v>
+        <v>1.00398063659668</v>
       </c>
       <c r="N79">
-        <v>27.33111381530762</v>
+        <v>7.454395294189453</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4034,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>24.44696426391602</v>
+        <v>7.445573806762695</v>
       </c>
       <c r="N80">
-        <v>24.44696426391602</v>
+        <v>7.445573806762695</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4072,13 +4072,13 @@
         <v>2</v>
       </c>
       <c r="L81">
-        <v>30.27963638305664</v>
+        <v>6.005048751831055</v>
       </c>
       <c r="M81">
-        <v>7.886409759521484</v>
+        <v>0.9870529174804688</v>
       </c>
       <c r="N81">
-        <v>38.16604614257812</v>
+        <v>6.992101669311523</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>31.04043006896973</v>
+        <v>5.103349685668945</v>
       </c>
       <c r="N82">
-        <v>31.04043006896973</v>
+        <v>5.103349685668945</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4160,13 +4160,13 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>35.63475608825684</v>
+        <v>8.020639419555664</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>35.63475608825684</v>
+        <v>8.020639419555664</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4204,10 +4204,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>40.13633728027344</v>
+        <v>5.097866058349609</v>
       </c>
       <c r="N84">
-        <v>40.13633728027344</v>
+        <v>5.097866058349609</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4245,13 +4245,13 @@
         <v>1</v>
       </c>
       <c r="L85">
-        <v>9.675264358520508</v>
+        <v>1.992464065551758</v>
       </c>
       <c r="M85">
-        <v>4.231452941894531</v>
+        <v>1.025915145874023</v>
       </c>
       <c r="N85">
-        <v>13.90671730041504</v>
+        <v>3.018379211425781</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4292,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>21.53229713439941</v>
+        <v>4.107475280761719</v>
       </c>
       <c r="N86">
-        <v>21.53229713439941</v>
+        <v>4.107475280761719</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4333,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>16.05820655822754</v>
+        <v>7.996559143066406</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>16.05820655822754</v>
+        <v>7.996559143066406</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4377,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>51.20396614074707</v>
+        <v>6.601572036743164</v>
       </c>
       <c r="N88">
-        <v>51.20396614074707</v>
+        <v>6.601572036743164</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4415,13 +4415,13 @@
         <v>3</v>
       </c>
       <c r="L89">
-        <v>9.143829345703125</v>
+        <v>1.917123794555664</v>
       </c>
       <c r="M89">
-        <v>18.9049243927002</v>
+        <v>2.994537353515625</v>
       </c>
       <c r="N89">
-        <v>28.04875373840332</v>
+        <v>4.911661148071289</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4459,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>33.2343578338623</v>
+        <v>7.031679153442383</v>
       </c>
       <c r="N90">
-        <v>33.2343578338623</v>
+        <v>7.031679153442383</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4500,13 +4500,13 @@
         <v>2</v>
       </c>
       <c r="L91">
-        <v>13.35310935974121</v>
+        <v>0.9982585906982422</v>
       </c>
       <c r="M91">
-        <v>8.098602294921875</v>
+        <v>2.006769180297852</v>
       </c>
       <c r="N91">
-        <v>21.45171165466309</v>
+        <v>3.005027770996094</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4547,10 +4547,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>21.33965492248535</v>
+        <v>6.024837493896484</v>
       </c>
       <c r="N92">
-        <v>21.33965492248535</v>
+        <v>6.024837493896484</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4585,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>14.85443115234375</v>
+        <v>3.004074096679688</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>14.85443115234375</v>
+        <v>3.004074096679688</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4632,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>16.89982414245605</v>
+        <v>5.115270614624023</v>
       </c>
       <c r="N94">
-        <v>16.89982414245605</v>
+        <v>5.115270614624023</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4673,13 +4673,13 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>22.72343635559082</v>
+        <v>1.999855041503906</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>0.9937286376953125</v>
       </c>
       <c r="N95">
-        <v>22.72343635559082</v>
+        <v>2.993583679199219</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4717,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>19.03104782104492</v>
+        <v>5.118131637573242</v>
       </c>
       <c r="N96">
-        <v>19.03104782104492</v>
+        <v>5.118131637573242</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4755,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>15.92636108398438</v>
+        <v>2.002239227294922</v>
       </c>
       <c r="M97">
-        <v>4.066944122314453</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>19.99330520629883</v>
+        <v>2.002239227294922</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4799,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>49.06129837036133</v>
+        <v>8.99815559387207</v>
       </c>
       <c r="N98">
-        <v>49.06129837036133</v>
+        <v>8.99815559387207</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4840,13 +4840,13 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>14.45388793945312</v>
+        <v>3.978967666625977</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="N99">
-        <v>14.45388793945312</v>
+        <v>3.978967666625977</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4884,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>33.62774848937988</v>
+        <v>7.131099700927734</v>
       </c>
       <c r="N100">
-        <v>33.62774848937988</v>
+        <v>7.131099700927734</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4922,13 +4922,13 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>4.634380340576172</v>
+        <v>2.042055130004883</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>0.9887218475341797</v>
       </c>
       <c r="N101">
-        <v>4.634380340576172</v>
+        <v>3.030776977539062</v>
       </c>
     </row>
   </sheetData>
@@ -5029,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.0058479309082</v>
+        <v>6.018877029418945</v>
       </c>
       <c r="N2">
-        <v>18.0058479309082</v>
+        <v>6.018877029418945</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5070,13 +5070,13 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>41.28170013427734</v>
+        <v>11.08098030090332</v>
       </c>
       <c r="M3">
-        <v>5.241632461547852</v>
+        <v>0.99945068359375</v>
       </c>
       <c r="N3">
-        <v>46.5233325958252</v>
+        <v>12.08043098449707</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5114,13 +5114,13 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>41.28170013427734</v>
+        <v>11.08098030090332</v>
       </c>
       <c r="M4">
-        <v>5.241632461547852</v>
+        <v>0.99945068359375</v>
       </c>
       <c r="N4">
-        <v>46.5233325958252</v>
+        <v>12.08043098449707</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5161,10 +5161,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.0987377166748</v>
+        <v>7.225751876831055</v>
       </c>
       <c r="N5">
-        <v>16.0987377166748</v>
+        <v>7.225751876831055</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5202,13 +5202,13 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>116.4824962615967</v>
+        <v>12.10761070251465</v>
       </c>
       <c r="M6">
-        <v>4.995822906494141</v>
+        <v>1.99437141418457</v>
       </c>
       <c r="N6">
-        <v>121.4783191680908</v>
+        <v>14.10198211669922</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5246,13 +5246,13 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>116.4824962615967</v>
+        <v>12.10761070251465</v>
       </c>
       <c r="M7">
-        <v>4.995822906494141</v>
+        <v>1.99437141418457</v>
       </c>
       <c r="N7">
-        <v>121.4783191680908</v>
+        <v>14.10198211669922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5293,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.99018478393555</v>
+        <v>8.996248245239258</v>
       </c>
       <c r="N8">
-        <v>16.99018478393555</v>
+        <v>8.996248245239258</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -5334,13 +5334,13 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>35.39299964904785</v>
+        <v>9.078741073608398</v>
       </c>
       <c r="M9">
-        <v>4.989862442016602</v>
+        <v>1.004934310913086</v>
       </c>
       <c r="N9">
-        <v>40.38286209106445</v>
+        <v>10.08367538452148</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5381,10 +5381,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.54836463928223</v>
+        <v>6.000995635986328</v>
       </c>
       <c r="N10">
-        <v>23.54836463928223</v>
+        <v>6.000995635986328</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5425,10 +5425,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>46.53739929199219</v>
+        <v>5.003452301025391</v>
       </c>
       <c r="N11">
-        <v>46.53739929199219</v>
+        <v>5.003452301025391</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5466,13 +5466,13 @@
         <v>2</v>
       </c>
       <c r="L12">
-        <v>41.00203514099121</v>
+        <v>12.48860359191895</v>
       </c>
       <c r="M12">
-        <v>3.998517990112305</v>
+        <v>2.097606658935547</v>
       </c>
       <c r="N12">
-        <v>45.00055313110352</v>
+        <v>14.58621025085449</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5513,10 +5513,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>49.46637153625488</v>
+        <v>8.000612258911133</v>
       </c>
       <c r="N13">
-        <v>49.46637153625488</v>
+        <v>8.000612258911133</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5554,13 +5554,13 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>23.00119400024414</v>
+        <v>8.997917175292969</v>
       </c>
       <c r="M14">
-        <v>5.003213882446289</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>28.00440788269043</v>
+        <v>8.997917175292969</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5601,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.35812759399414</v>
+        <v>7.103443145751953</v>
       </c>
       <c r="N15">
-        <v>26.35812759399414</v>
+        <v>7.103443145751953</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5642,13 +5642,13 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>4.001855850219727</v>
+        <v>0.9982585906982422</v>
       </c>
       <c r="M16">
-        <v>2.998590469360352</v>
+        <v>1.001358032226562</v>
       </c>
       <c r="N16">
-        <v>7.000446319580078</v>
+        <v>1.999616622924805</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5689,10 +5689,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.08608055114746</v>
+        <v>4.994630813598633</v>
       </c>
       <c r="N17">
-        <v>13.08608055114746</v>
+        <v>4.994630813598633</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -5730,13 +5730,13 @@
         <v>3</v>
       </c>
       <c r="L18">
-        <v>3.99327278137207</v>
+        <v>1.996278762817383</v>
       </c>
       <c r="M18">
-        <v>5.999565124511719</v>
+        <v>3.044605255126953</v>
       </c>
       <c r="N18">
-        <v>9.992837905883789</v>
+        <v>5.040884017944336</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5777,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.65944671630859</v>
+        <v>7.010936737060547</v>
       </c>
       <c r="N19">
-        <v>20.65944671630859</v>
+        <v>7.010936737060547</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5818,13 +5818,13 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>23.70810508728027</v>
+        <v>7.015705108642578</v>
       </c>
       <c r="M20">
-        <v>3.001689910888672</v>
+        <v>1.984119415283203</v>
       </c>
       <c r="N20">
-        <v>26.70979499816895</v>
+        <v>8.999824523925781</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5862,13 +5862,13 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>23.70810508728027</v>
+        <v>7.015705108642578</v>
       </c>
       <c r="M21">
-        <v>3.001689910888672</v>
+        <v>1.984119415283203</v>
       </c>
       <c r="N21">
-        <v>26.70979499816895</v>
+        <v>8.999824523925781</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5909,10 +5909,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.00744438171387</v>
+        <v>7.017374038696289</v>
       </c>
       <c r="N22">
-        <v>19.00744438171387</v>
+        <v>7.017374038696289</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5950,13 +5950,13 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <v>32.88674354553223</v>
+        <v>10.02740859985352</v>
       </c>
       <c r="M23">
-        <v>4.99725341796875</v>
+        <v>0.9896755218505859</v>
       </c>
       <c r="N23">
-        <v>37.88399696350098</v>
+        <v>11.0170841217041</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -5994,13 +5994,13 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>32.88674354553223</v>
+        <v>10.02740859985352</v>
       </c>
       <c r="M24">
-        <v>4.99725341796875</v>
+        <v>0.9896755218505859</v>
       </c>
       <c r="N24">
-        <v>37.88399696350098</v>
+        <v>11.0170841217041</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -6041,10 +6041,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.01357078552246</v>
+        <v>5.985021591186523</v>
       </c>
       <c r="N25">
-        <v>20.01357078552246</v>
+        <v>5.985021591186523</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -6082,13 +6082,13 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>38.59829902648926</v>
+        <v>5.016326904296875</v>
       </c>
       <c r="M26">
-        <v>8.649110794067383</v>
+        <v>1.001119613647461</v>
       </c>
       <c r="N26">
-        <v>47.24740982055664</v>
+        <v>6.017446517944336</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6126,13 +6126,13 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>38.59829902648926</v>
+        <v>5.016326904296875</v>
       </c>
       <c r="M27">
-        <v>8.649110794067383</v>
+        <v>1.001119613647461</v>
       </c>
       <c r="N27">
-        <v>47.24740982055664</v>
+        <v>6.017446517944336</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>41.25475883483887</v>
+        <v>6.000280380249023</v>
       </c>
       <c r="N28">
-        <v>41.25475883483887</v>
+        <v>6.000280380249023</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -6214,13 +6214,13 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <v>17.65823364257812</v>
+        <v>5.015850067138672</v>
       </c>
       <c r="M29">
-        <v>5.004644393920898</v>
+        <v>1.982688903808594</v>
       </c>
       <c r="N29">
-        <v>22.66287803649902</v>
+        <v>6.998538970947266</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -6258,13 +6258,13 @@
         <v>3</v>
       </c>
       <c r="L30">
-        <v>17.65823364257812</v>
+        <v>5.015850067138672</v>
       </c>
       <c r="M30">
-        <v>5.004644393920898</v>
+        <v>1.982688903808594</v>
       </c>
       <c r="N30">
-        <v>22.66287803649902</v>
+        <v>6.998538970947266</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -6302,13 +6302,13 @@
         <v>3</v>
       </c>
       <c r="L31">
-        <v>17.65823364257812</v>
+        <v>5.015850067138672</v>
       </c>
       <c r="M31">
-        <v>5.004644393920898</v>
+        <v>1.982688903808594</v>
       </c>
       <c r="N31">
-        <v>22.66287803649902</v>
+        <v>6.998538970947266</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -6349,10 +6349,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>41.1531925201416</v>
+        <v>6.000280380249023</v>
       </c>
       <c r="N32">
-        <v>41.1531925201416</v>
+        <v>6.000280380249023</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -6390,13 +6390,13 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>24.27840232849121</v>
+        <v>5.972146987915039</v>
       </c>
       <c r="M33">
-        <v>3.004789352416992</v>
+        <v>1.001596450805664</v>
       </c>
       <c r="N33">
-        <v>27.2831916809082</v>
+        <v>6.973743438720703</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -6434,13 +6434,13 @@
         <v>2</v>
       </c>
       <c r="L34">
-        <v>24.27840232849121</v>
+        <v>5.972146987915039</v>
       </c>
       <c r="M34">
-        <v>3.004789352416992</v>
+        <v>1.001596450805664</v>
       </c>
       <c r="N34">
-        <v>27.2831916809082</v>
+        <v>6.973743438720703</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -6481,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>44.73352432250977</v>
+        <v>7.001399993896484</v>
       </c>
       <c r="N35">
-        <v>44.73352432250977</v>
+        <v>7.001399993896484</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -6522,13 +6522,13 @@
         <v>3</v>
       </c>
       <c r="L36">
-        <v>25.37274360656738</v>
+        <v>8.982658386230469</v>
       </c>
       <c r="M36">
-        <v>3.015518188476562</v>
+        <v>1.113653182983398</v>
       </c>
       <c r="N36">
-        <v>28.38826179504395</v>
+        <v>10.09631156921387</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -6566,13 +6566,13 @@
         <v>3</v>
       </c>
       <c r="L37">
-        <v>25.37274360656738</v>
+        <v>8.982658386230469</v>
       </c>
       <c r="M37">
-        <v>3.015518188476562</v>
+        <v>1.113653182983398</v>
       </c>
       <c r="N37">
-        <v>28.38826179504395</v>
+        <v>10.09631156921387</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -6610,13 +6610,13 @@
         <v>3</v>
       </c>
       <c r="L38">
-        <v>25.37274360656738</v>
+        <v>8.982658386230469</v>
       </c>
       <c r="M38">
-        <v>3.015518188476562</v>
+        <v>1.113653182983398</v>
       </c>
       <c r="N38">
-        <v>28.38826179504395</v>
+        <v>10.09631156921387</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>17.99964904785156</v>
+        <v>6.000518798828125</v>
       </c>
       <c r="N39">
-        <v>17.99964904785156</v>
+        <v>6.000518798828125</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -6698,13 +6698,13 @@
         <v>2</v>
       </c>
       <c r="L40">
-        <v>21.52872085571289</v>
+        <v>7.014751434326172</v>
       </c>
       <c r="M40">
-        <v>2.011299133300781</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N40">
-        <v>23.54001998901367</v>
+        <v>8.014440536499023</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -6742,13 +6742,13 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>21.52872085571289</v>
+        <v>7.014751434326172</v>
       </c>
       <c r="M41">
-        <v>2.011299133300781</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N41">
-        <v>23.54001998901367</v>
+        <v>8.014440536499023</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -6789,10 +6789,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>23.62298965454102</v>
+        <v>5.094766616821289</v>
       </c>
       <c r="N42">
-        <v>23.62298965454102</v>
+        <v>5.094766616821289</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -6833,10 +6833,10 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>23.46253395080566</v>
+        <v>6.986618041992188</v>
       </c>
       <c r="N43">
-        <v>23.46253395080566</v>
+        <v>6.986618041992188</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -6877,10 +6877,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>21.94523811340332</v>
+        <v>9.958982467651367</v>
       </c>
       <c r="N44">
-        <v>21.94523811340332</v>
+        <v>9.958982467651367</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -6921,10 +6921,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>18.55301856994629</v>
+        <v>6.901741027832031</v>
       </c>
       <c r="N45">
-        <v>18.55301856994629</v>
+        <v>6.901741027832031</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -6962,13 +6962,13 @@
         <v>2</v>
       </c>
       <c r="L46">
-        <v>15.00391960144043</v>
+        <v>6.001710891723633</v>
       </c>
       <c r="M46">
-        <v>3.00145149230957</v>
+        <v>0.9973049163818359</v>
       </c>
       <c r="N46">
-        <v>18.00537109375</v>
+        <v>6.999015808105469</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -7006,13 +7006,13 @@
         <v>2</v>
       </c>
       <c r="L47">
-        <v>15.00391960144043</v>
+        <v>6.001710891723633</v>
       </c>
       <c r="M47">
-        <v>3.00145149230957</v>
+        <v>0.9973049163818359</v>
       </c>
       <c r="N47">
-        <v>18.00537109375</v>
+        <v>6.999015808105469</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -7053,10 +7053,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>18.04733276367188</v>
+        <v>6.999731063842773</v>
       </c>
       <c r="N48">
-        <v>18.04733276367188</v>
+        <v>6.999731063842773</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -7094,13 +7094,13 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>30.1048755645752</v>
+        <v>11.00063323974609</v>
       </c>
       <c r="M49">
-        <v>2.023458480834961</v>
+        <v>0.9973049163818359</v>
       </c>
       <c r="N49">
-        <v>32.12833404541016</v>
+        <v>11.99793815612793</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -7141,10 +7141,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>20.00093460083008</v>
+        <v>8.545398712158203</v>
       </c>
       <c r="N50">
-        <v>20.00093460083008</v>
+        <v>8.545398712158203</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -7182,13 +7182,13 @@
         <v>2</v>
       </c>
       <c r="L51">
-        <v>18.00036430358887</v>
+        <v>7.020235061645508</v>
       </c>
       <c r="M51">
-        <v>3.000259399414062</v>
+        <v>0.9884834289550781</v>
       </c>
       <c r="N51">
-        <v>21.00062370300293</v>
+        <v>8.008718490600586</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -7229,10 +7229,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>15.9602165222168</v>
+        <v>7.074117660522461</v>
       </c>
       <c r="N52">
-        <v>15.9602165222168</v>
+        <v>7.074117660522461</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -7270,13 +7270,13 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>16.71171188354492</v>
+        <v>5.106925964355469</v>
       </c>
       <c r="M53">
-        <v>2.900600433349609</v>
+        <v>1.000404357910156</v>
       </c>
       <c r="N53">
-        <v>19.61231231689453</v>
+        <v>6.107330322265625</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -7314,13 +7314,13 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <v>16.71171188354492</v>
+        <v>5.106925964355469</v>
       </c>
       <c r="M54">
-        <v>2.900600433349609</v>
+        <v>1.000404357910156</v>
       </c>
       <c r="N54">
-        <v>19.61231231689453</v>
+        <v>6.107330322265625</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -7361,10 +7361,10 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>30.54404258728027</v>
+        <v>5.25212287902832</v>
       </c>
       <c r="N55">
-        <v>30.54404258728027</v>
+        <v>5.25212287902832</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -7402,13 +7402,13 @@
         <v>2</v>
       </c>
       <c r="L56">
-        <v>32.03010559082031</v>
+        <v>4.076242446899414</v>
       </c>
       <c r="M56">
-        <v>4.32276725769043</v>
+        <v>0.9982585906982422</v>
       </c>
       <c r="N56">
-        <v>36.35287284851074</v>
+        <v>5.074501037597656</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -7446,13 +7446,13 @@
         <v>2</v>
       </c>
       <c r="L57">
-        <v>32.03010559082031</v>
+        <v>4.076242446899414</v>
       </c>
       <c r="M57">
-        <v>4.32276725769043</v>
+        <v>0.9982585906982422</v>
       </c>
       <c r="N57">
-        <v>36.35287284851074</v>
+        <v>5.074501037597656</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -7493,10 +7493,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>23.17428588867188</v>
+        <v>7.005691528320312</v>
       </c>
       <c r="N58">
-        <v>23.17428588867188</v>
+        <v>7.005691528320312</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -7534,13 +7534,13 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>33.53095054626465</v>
+        <v>9.015560150146484</v>
       </c>
       <c r="M59">
-        <v>6.463766098022461</v>
+        <v>0.9758472442626953</v>
       </c>
       <c r="N59">
-        <v>39.99471664428711</v>
+        <v>9.99140739440918</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -7578,13 +7578,13 @@
         <v>2</v>
       </c>
       <c r="L60">
-        <v>33.53095054626465</v>
+        <v>9.015560150146484</v>
       </c>
       <c r="M60">
-        <v>6.463766098022461</v>
+        <v>0.9758472442626953</v>
       </c>
       <c r="N60">
-        <v>39.99471664428711</v>
+        <v>9.99140739440918</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -7625,10 +7625,10 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>20.03860473632812</v>
+        <v>6.624937057495117</v>
       </c>
       <c r="N61">
-        <v>20.03860473632812</v>
+        <v>6.624937057495117</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -7666,13 +7666,13 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>15.02823829650879</v>
+        <v>5.896091461181641</v>
       </c>
       <c r="M62">
-        <v>4.328489303588867</v>
+        <v>1.028060913085938</v>
       </c>
       <c r="N62">
-        <v>19.35672760009766</v>
+        <v>6.924152374267578</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7710,13 +7710,13 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>15.02823829650879</v>
+        <v>5.896091461181641</v>
       </c>
       <c r="M63">
-        <v>4.328489303588867</v>
+        <v>1.028060913085938</v>
       </c>
       <c r="N63">
-        <v>19.35672760009766</v>
+        <v>6.924152374267578</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -7757,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>26.41725540161133</v>
+        <v>6.059646606445312</v>
       </c>
       <c r="N64">
-        <v>26.41725540161133</v>
+        <v>6.059646606445312</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -7798,13 +7798,13 @@
         <v>3</v>
       </c>
       <c r="L65">
-        <v>34.38425064086914</v>
+        <v>9.096384048461914</v>
       </c>
       <c r="M65">
-        <v>4.988193511962891</v>
+        <v>1.954317092895508</v>
       </c>
       <c r="N65">
-        <v>39.37244415283203</v>
+        <v>11.05070114135742</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -7842,13 +7842,13 @@
         <v>3</v>
       </c>
       <c r="L66">
-        <v>34.38425064086914</v>
+        <v>9.096384048461914</v>
       </c>
       <c r="M66">
-        <v>4.988193511962891</v>
+        <v>1.954317092895508</v>
       </c>
       <c r="N66">
-        <v>39.37244415283203</v>
+        <v>11.05070114135742</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -7886,13 +7886,13 @@
         <v>3</v>
       </c>
       <c r="L67">
-        <v>34.38425064086914</v>
+        <v>9.096384048461914</v>
       </c>
       <c r="M67">
-        <v>4.988193511962891</v>
+        <v>1.954317092895508</v>
       </c>
       <c r="N67">
-        <v>39.37244415283203</v>
+        <v>11.05070114135742</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -7933,10 +7933,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>25.60138702392578</v>
+        <v>5.9814453125</v>
       </c>
       <c r="N68">
-        <v>25.60138702392578</v>
+        <v>5.9814453125</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -7974,13 +7974,13 @@
         <v>2</v>
       </c>
       <c r="L69">
-        <v>23.93341064453125</v>
+        <v>4.995822906494141</v>
       </c>
       <c r="M69">
-        <v>3.006458282470703</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N69">
-        <v>26.93986892700195</v>
+        <v>5.995512008666992</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -8018,13 +8018,13 @@
         <v>2</v>
       </c>
       <c r="L70">
-        <v>23.93341064453125</v>
+        <v>4.995822906494141</v>
       </c>
       <c r="M70">
-        <v>3.006458282470703</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N70">
-        <v>26.93986892700195</v>
+        <v>5.995512008666992</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -8065,10 +8065,10 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>23.03552627563477</v>
+        <v>6.016254425048828</v>
       </c>
       <c r="N71">
-        <v>23.03552627563477</v>
+        <v>6.016254425048828</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -8106,13 +8106,13 @@
         <v>2</v>
       </c>
       <c r="L72">
-        <v>15.01965522766113</v>
+        <v>6.129741668701172</v>
       </c>
       <c r="M72">
-        <v>4.007816314697266</v>
+        <v>1.993179321289062</v>
       </c>
       <c r="N72">
-        <v>19.0274715423584</v>
+        <v>8.122920989990234</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -8150,13 +8150,13 @@
         <v>2</v>
       </c>
       <c r="L73">
-        <v>15.01965522766113</v>
+        <v>6.129741668701172</v>
       </c>
       <c r="M73">
-        <v>4.007816314697266</v>
+        <v>1.993179321289062</v>
       </c>
       <c r="N73">
-        <v>19.0274715423584</v>
+        <v>8.122920989990234</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -8197,10 +8197,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>30.55405616760254</v>
+        <v>7.036209106445312</v>
       </c>
       <c r="N74">
-        <v>30.55405616760254</v>
+        <v>7.036209106445312</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -8238,13 +8238,13 @@
         <v>2</v>
       </c>
       <c r="L75">
-        <v>91.19319915771484</v>
+        <v>11.11078262329102</v>
       </c>
       <c r="M75">
-        <v>6.356477737426758</v>
+        <v>1.023292541503906</v>
       </c>
       <c r="N75">
-        <v>97.5496768951416</v>
+        <v>12.13407516479492</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -8282,13 +8282,13 @@
         <v>2</v>
       </c>
       <c r="L76">
-        <v>91.19319915771484</v>
+        <v>11.11078262329102</v>
       </c>
       <c r="M76">
-        <v>6.356477737426758</v>
+        <v>1.023292541503906</v>
       </c>
       <c r="N76">
-        <v>97.5496768951416</v>
+        <v>12.13407516479492</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -8329,10 +8329,10 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>43.55812072753906</v>
+        <v>5.989313125610352</v>
       </c>
       <c r="N77">
-        <v>43.55812072753906</v>
+        <v>5.989313125610352</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -8370,13 +8370,13 @@
         <v>3</v>
       </c>
       <c r="L78">
-        <v>87.55278587341309</v>
+        <v>10.12301445007324</v>
       </c>
       <c r="M78">
-        <v>17.11130142211914</v>
+        <v>0.9982585906982422</v>
       </c>
       <c r="N78">
-        <v>104.6640872955322</v>
+        <v>11.12127304077148</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>43.56241226196289</v>
+        <v>6.00743293762207</v>
       </c>
       <c r="N79">
-        <v>43.56241226196289</v>
+        <v>6.00743293762207</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -8458,13 +8458,13 @@
         <v>2</v>
       </c>
       <c r="L80">
-        <v>33.57529640197754</v>
+        <v>4.57310676574707</v>
       </c>
       <c r="M80">
-        <v>8.229494094848633</v>
+        <v>0.9977817535400391</v>
       </c>
       <c r="N80">
-        <v>41.80479049682617</v>
+        <v>5.570888519287109</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -8502,13 +8502,13 @@
         <v>2</v>
       </c>
       <c r="L81">
-        <v>33.57529640197754</v>
+        <v>4.57310676574707</v>
       </c>
       <c r="M81">
-        <v>8.229494094848633</v>
+        <v>0.9977817535400391</v>
       </c>
       <c r="N81">
-        <v>41.80479049682617</v>
+        <v>5.570888519287109</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>28.59878540039062</v>
+        <v>6.103038787841797</v>
       </c>
       <c r="N82">
-        <v>28.59878540039062</v>
+        <v>6.103038787841797</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -8590,13 +8590,13 @@
         <v>2</v>
       </c>
       <c r="L83">
-        <v>23.27442169189453</v>
+        <v>4.988670349121094</v>
       </c>
       <c r="M83">
-        <v>5.890130996704102</v>
+        <v>1.101493835449219</v>
       </c>
       <c r="N83">
-        <v>29.16455268859863</v>
+        <v>6.090164184570312</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -8634,13 +8634,13 @@
         <v>2</v>
       </c>
       <c r="L84">
-        <v>23.27442169189453</v>
+        <v>4.988670349121094</v>
       </c>
       <c r="M84">
-        <v>5.890130996704102</v>
+        <v>1.101493835449219</v>
       </c>
       <c r="N84">
-        <v>29.16455268859863</v>
+        <v>6.090164184570312</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -8681,10 +8681,10 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>25.88868141174316</v>
+        <v>9.029865264892578</v>
       </c>
       <c r="N85">
-        <v>25.88868141174316</v>
+        <v>9.029865264892578</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -8722,13 +8722,13 @@
         <v>2</v>
       </c>
       <c r="L86">
-        <v>18.87369155883789</v>
+        <v>5.406856536865234</v>
       </c>
       <c r="M86">
-        <v>4.949808120727539</v>
+        <v>1.266717910766602</v>
       </c>
       <c r="N86">
-        <v>23.82349967956543</v>
+        <v>6.673574447631836</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -8766,13 +8766,13 @@
         <v>2</v>
       </c>
       <c r="L87">
-        <v>18.87369155883789</v>
+        <v>5.406856536865234</v>
       </c>
       <c r="M87">
-        <v>4.949808120727539</v>
+        <v>1.266717910766602</v>
       </c>
       <c r="N87">
-        <v>23.82349967956543</v>
+        <v>6.673574447631836</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -8813,10 +8813,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>29.12068367004395</v>
+        <v>5.015134811401367</v>
       </c>
       <c r="N88">
-        <v>29.12068367004395</v>
+        <v>5.015134811401367</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -8854,13 +8854,13 @@
         <v>1</v>
       </c>
       <c r="L89">
-        <v>23.33259582519531</v>
+        <v>4.991531372070312</v>
       </c>
       <c r="M89">
-        <v>3.222942352294922</v>
+        <v>1.001358032226562</v>
       </c>
       <c r="N89">
-        <v>26.55553817749023</v>
+        <v>5.992889404296875</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -8901,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>25.07328987121582</v>
+        <v>6.120681762695312</v>
       </c>
       <c r="N90">
-        <v>25.07328987121582</v>
+        <v>6.120681762695312</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -8942,13 +8942,13 @@
         <v>1</v>
       </c>
       <c r="L91">
-        <v>37.67156600952148</v>
+        <v>5.01561164855957</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>1.000642776489258</v>
       </c>
       <c r="N91">
-        <v>37.67156600952148</v>
+        <v>6.016254425048828</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -8989,10 +8989,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>22.23706245422363</v>
+        <v>5.983352661132812</v>
       </c>
       <c r="N92">
-        <v>22.23706245422363</v>
+        <v>5.983352661132812</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -9033,10 +9033,10 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>28.67460250854492</v>
+        <v>6.028652191162109</v>
       </c>
       <c r="N93">
-        <v>28.67460250854492</v>
+        <v>6.028652191162109</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -9077,10 +9077,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>24.44696426391602</v>
+        <v>7.445573806762695</v>
       </c>
       <c r="N94">
-        <v>24.44696426391602</v>
+        <v>7.445573806762695</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -9121,10 +9121,10 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>31.04043006896973</v>
+        <v>5.103349685668945</v>
       </c>
       <c r="N95">
-        <v>31.04043006896973</v>
+        <v>5.103349685668945</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -9162,13 +9162,13 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>35.63475608825684</v>
+        <v>8.020639419555664</v>
       </c>
       <c r="M96">
         <v>0</v>
       </c>
       <c r="N96">
-        <v>35.63475608825684</v>
+        <v>8.020639419555664</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -9206,13 +9206,13 @@
         <v>1</v>
       </c>
       <c r="L97">
-        <v>9.675264358520508</v>
+        <v>1.992464065551758</v>
       </c>
       <c r="M97">
-        <v>4.231452941894531</v>
+        <v>1.025915145874023</v>
       </c>
       <c r="N97">
-        <v>13.90671730041504</v>
+        <v>3.018379211425781</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -9253,10 +9253,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>21.53229713439941</v>
+        <v>4.107475280761719</v>
       </c>
       <c r="N98">
-        <v>21.53229713439941</v>
+        <v>4.107475280761719</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -9294,13 +9294,13 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>16.05820655822754</v>
+        <v>7.996559143066406</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="N99">
-        <v>16.05820655822754</v>
+        <v>7.996559143066406</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -9338,13 +9338,13 @@
         <v>2</v>
       </c>
       <c r="L100">
-        <v>13.35310935974121</v>
+        <v>0.9982585906982422</v>
       </c>
       <c r="M100">
-        <v>8.098602294921875</v>
+        <v>2.006769180297852</v>
       </c>
       <c r="N100">
-        <v>21.45171165466309</v>
+        <v>3.005027770996094</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -9385,10 +9385,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>21.33965492248535</v>
+        <v>6.024837493896484</v>
       </c>
       <c r="N101">
-        <v>21.33965492248535</v>
+        <v>6.024837493896484</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -9429,10 +9429,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>16.89982414245605</v>
+        <v>5.115270614624023</v>
       </c>
       <c r="N102">
-        <v>16.89982414245605</v>
+        <v>5.115270614624023</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -9470,13 +9470,13 @@
         <v>2</v>
       </c>
       <c r="L103">
-        <v>22.72343635559082</v>
+        <v>1.999855041503906</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>0.9937286376953125</v>
       </c>
       <c r="N103">
-        <v>22.72343635559082</v>
+        <v>2.993583679199219</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -9514,13 +9514,13 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <v>14.45388793945312</v>
+        <v>3.978967666625977</v>
       </c>
       <c r="M104">
         <v>0</v>
       </c>
       <c r="N104">
-        <v>14.45388793945312</v>
+        <v>3.978967666625977</v>
       </c>
     </row>
   </sheetData>
@@ -9570,7 +9570,7 @@
         <v>0.84</v>
       </c>
       <c r="E2">
-        <v>27.11071968078613</v>
+        <v>6.489801406860352</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9587,7 +9587,7 @@
         <v>1.22</v>
       </c>
       <c r="E3">
-        <v>32.22197532653809</v>
+        <v>7.511329650878906</v>
       </c>
     </row>
   </sheetData>
